--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
     <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
     <sheet name="連結した表" sheetId="3" r:id="rId3"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -215,10 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -548,7 +549,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
@@ -581,7 +582,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
@@ -660,7 +661,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
@@ -693,7 +694,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
@@ -730,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -752,7 +753,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2"/>
@@ -762,11 +763,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -802,7 +803,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
@@ -812,11 +813,11 @@
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
@@ -854,4 +855,115 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
     <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
     <sheet name="連結した表" sheetId="3" r:id="rId3"/>
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
+    <sheet name="正規表現で一致" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -100,6 +101,44 @@
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス情報(2)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名（必須）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス情報(1)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -861,9 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -966,4 +1003,124 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
-    <sheet name="見出しセルがない" sheetId="4" r:id="rId2"/>
-    <sheet name="連結した表" sheetId="3" r:id="rId3"/>
-    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId4"/>
-    <sheet name="正規表現で一致" sheetId="6" r:id="rId5"/>
+    <sheet name="縦方向の表" sheetId="7" r:id="rId2"/>
+    <sheet name="見出しセルがない" sheetId="4" r:id="rId3"/>
+    <sheet name="連結した表" sheetId="3" r:id="rId4"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId5"/>
+    <sheet name="正規表現で一致" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -676,6 +677,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,7 +875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -896,7 +1005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1005,11 +1114,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="連結した表" sheetId="3" r:id="rId4"/>
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId5"/>
     <sheet name="正規表現で一致" sheetId="6" r:id="rId6"/>
+    <sheet name="配列カラムの設定" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -141,6 +142,45 @@
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsIterateTables」のテスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名（必須）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -148,7 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +217,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -207,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,11 +303,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -260,6 +413,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -679,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1232,4 +1405,112 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5C0A5-B3F5-4EEA-AE5B-78BCFA19AA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="39315" yWindow="3105" windowWidth="21615" windowHeight="11655" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -14,13 +15,14 @@
     <sheet name="メソッドにアノテーションを付与" sheetId="5" r:id="rId5"/>
     <sheet name="正規表現で一致" sheetId="6" r:id="rId6"/>
     <sheet name="配列カラムの設定" sheetId="8" r:id="rId7"/>
+    <sheet name="コメント情報" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -187,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -410,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -420,6 +419,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,10 +435,6 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -448,12 +450,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -849,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -957,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1084,11 +1123,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -1134,11 +1173,11 @@
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
@@ -1179,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1288,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1408,102 +1447,102 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="12" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="12" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1513,4 +1552,115 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663AEA4-F6BB-479B-9A05-9C7C079F01DE}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_IterateTables_template.xlsx
+++ b/src/test/data/anno_IterateTables_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5C0A5-B3F5-4EEA-AE5B-78BCFA19AA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AFBC77-E45B-4757-AAAD-CA7068DBE1FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39315" yWindow="3105" windowWidth="21615" windowHeight="11655" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32160" yWindow="3195" windowWidth="20775" windowHeight="11835" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常の表" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="正規表現で一致" sheetId="6" r:id="rId6"/>
     <sheet name="配列カラムの設定" sheetId="8" r:id="rId7"/>
     <sheet name="コメント情報" sheetId="9" r:id="rId8"/>
+    <sheet name="メソッドが存在しない" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>アノテーション「@XlsIterateTables」のテスタ</t>
     <phoneticPr fontId="2"/>
@@ -183,6 +184,19 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1558,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663AEA4-F6BB-479B-9A05-9C7C079F01DE}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1663,4 +1677,64 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F58DEDE-D28D-461B-9BC6-DD37B89ECCC6}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>